--- a/c.xlsx
+++ b/c.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>教师名称</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>其他</t>
+  </si>
+  <si>
+    <t>"123456"</t>
   </si>
   <si>
     <t>""</t>
@@ -690,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +701,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1231,7 +1237,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1273,25 +1279,23 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1635465</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
         <v>34745</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1299,43 +1303,41 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1635465</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
         <v>34745</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1635465</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
         <v>34745</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
